--- a/DynamoDbWorkbook.xlsx
+++ b/DynamoDbWorkbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\repos\JodyCore2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05865C8-48D6-464F-89E7-08B73DA106A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AE29CB-6687-4DCB-9717-146AB1111BDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-50" windowWidth="29020" windowHeight="15820" activeTab="1" xr2:uid="{D0EBFA24-DFF1-43E0-AE65-AC152D62791F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{D0EBFA24-DFF1-43E0-AE65-AC152D62791F}"/>
   </bookViews>
   <sheets>
     <sheet name="Games" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="99">
   <si>
     <t>Guid</t>
   </si>
@@ -287,9 +287,6 @@
     <t>Competition#&lt;YearNo&gt;#&lt;Order&gt;#&lt;CompetitionName&gt;</t>
   </si>
   <si>
-    <t>Ranking#&lt;YearNo&gt;#&lt;TeamId&gt;</t>
-  </si>
-  <si>
     <t>Teams#&lt;TeamId&gt;</t>
   </si>
   <si>
@@ -312,6 +309,30 @@
   </si>
   <si>
     <t>Team2Id</t>
+  </si>
+  <si>
+    <t>Ranking#&lt;YearNo&gt;#&lt;CompetitionName&gt;#&lt;RankingGroupName&gt;</t>
+  </si>
+  <si>
+    <t>Rankings should have a sort key by TeamId</t>
+  </si>
+  <si>
+    <t>Records need a sort key by team name</t>
+  </si>
+  <si>
+    <t>Need sort keys by HomeTeamId and AwayTeamId</t>
+  </si>
+  <si>
+    <t>Need a sort key by HomeTeamId and AwayTeamId</t>
+  </si>
+  <si>
+    <t>Need a sort key by Competition#YearNo#DayNo</t>
+  </si>
+  <si>
+    <t>Need a sort key by Team#YearNo#DayNo</t>
+  </si>
+  <si>
+    <t>Need a sort key by Team#Competition#YearNo#DayNo</t>
   </si>
 </sst>
 </file>
@@ -1087,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3532E183-B9A5-41E6-9514-EE444C91F391}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1113,7 +1134,7 @@
         <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -1129,7 +1150,7 @@
         <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
@@ -1153,7 +1174,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -1163,26 +1184,36 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>83</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" t="s">
         <v>89</v>
-      </c>
-      <c r="C20" t="s">
-        <v>90</v>
       </c>
       <c r="D20" t="s">
         <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F20" t="s">
         <v>68</v>
@@ -1207,6 +1238,11 @@
       </c>
       <c r="M20" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
@@ -1214,7 +1250,27 @@
         <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
